--- a/Assets/StreamingAssets/Localization/ExcelFiles/Example.xlsx
+++ b/Assets/StreamingAssets/Localization/ExcelFiles/Example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25654E09-29BA-4E0D-8271-7E8ADC779409}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB1456D-253F-4E99-9BD6-B181AC846F6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="510" windowWidth="25755" windowHeight="17445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Menu.Quit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退出游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尤尼提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,30 +136,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#GameTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Subtitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战争\n战争从未改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>War\nwar never changes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Unity}大战{Unreal}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,19 +148,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Unity}——新世纪最强大的战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Unity}, the most powerful warrior in the new century</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Unreal}——旧时代最伟大的战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Unreal}, the greatest warrior in the old times</t>
+    <t>优你体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Unity}\n新世纪最强大的战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Unreal}\n旧时代最伟大的战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>War\nWar never changes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Unity}\nThe most powerful warrior in the new century</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Unreal}\nThe greatest warrior in the old times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu.QuitGame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C27" sqref="C27"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -610,41 +610,41 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>3</v>
@@ -689,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
@@ -700,50 +700,50 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>38</v>
@@ -751,20 +751,26 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576 A1:XFD1" xr:uid="{D596BEA3-8934-4C90-BAD0-135ACDA256AD}">
+      <formula1>1</formula1>
+      <formula2>64</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Assets/StreamingAssets/Localization/ExcelFiles/Example.xlsx
+++ b/Assets/StreamingAssets/Localization/ExcelFiles/Example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB1456D-253F-4E99-9BD6-B181AC846F6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930FF856-CB77-4675-A49F-55A164B71A9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="1620" windowWidth="25755" windowHeight="17445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>GameName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,22 @@
   </si>
   <si>
     <t>Menu.QuitGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu.LangChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言已切换为简体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The language had already changed to English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,16 +602,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="6" customWidth="1"/>
     <col min="3" max="3" width="38.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="62.75" style="6" customWidth="1"/>
@@ -712,54 +728,68 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
